--- a/performance.xlsx
+++ b/performance.xlsx
@@ -14,19 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="5">
   <si>
     <t>rad/s</t>
   </si>
   <si>
     <t>torque(N*m)</t>
   </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>-inf</t>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,16 +65,57 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -102,16 +153,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -143,6 +317,19 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -158,6 +345,14 @@
           <c:tx>
             <c:v>torque</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'torque-w'!$A$13:$A$32</c:f>
@@ -308,11 +503,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135160832"/>
-        <c:axId val="191248000"/>
+        <c:axId val="212971008"/>
+        <c:axId val="217855040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135160832"/>
+        <c:axId val="212971008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -322,7 +517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191248000"/>
+        <c:crossAx val="217855040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -330,7 +525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191248000"/>
+        <c:axId val="217855040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -341,7 +536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135160832"/>
+        <c:crossAx val="212971008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -378,6 +573,19 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -393,6 +601,14 @@
           <c:tx>
             <c:v>power</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'torque-w'!$A$13:$A$32</c:f>
@@ -543,11 +759,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212686848"/>
-        <c:axId val="192698560"/>
+        <c:axId val="212277760"/>
+        <c:axId val="217856768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212686848"/>
+        <c:axId val="212277760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192698560"/>
+        <c:crossAx val="217856768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -565,7 +781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192698560"/>
+        <c:axId val="217856768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,9 +792,1708 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212686848"/>
+        <c:crossAx val="212277760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1208357392825897"/>
+          <c:y val="0.15313684747739861"/>
+          <c:w val="0.61337204724409444"/>
+          <c:h val="0.75379593175853021"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'torque-w'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>torque(N*m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'torque-w'!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'torque-w'!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.368672793838134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.700020372318847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46838819562194128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29022483338904742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1398476042608317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17532797592127519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20313170572330791</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.190536289444284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17933813131297199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15088581565994241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1062271269035644</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0667610618012093E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2381902855783351E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.8541864741664017E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214336064"/>
+        <c:axId val="214336640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214336064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214336640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214336640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214336064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'torque-w'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>torque(N*m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'torque-w'!$K$2:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'torque-w'!$L$2:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6.6671133272732483E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7674868801936603E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8448800236867585E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9505175838503648E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11052608436562469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1131096637108622</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20313170572330791</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.190536289444284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17933813131297199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14238708795097579</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5069769894164852E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0667610618012093E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2381902855783351E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214338368"/>
+        <c:axId val="214338944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214338368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214338944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214338944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214338368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0006419241010215E-2"/>
+          <c:y val="0.1168708178625211"/>
+          <c:w val="0.79419016906533568"/>
+          <c:h val="0.85132819126874459"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'torque-w'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'torque-w'!$K$2:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'torque-w'!$M$2:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47674868801936604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3689760047373518</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6851552751551093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.421043374624988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.65548318554311</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.187902343398475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.33754026109988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.34705050503776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.814837915587821</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5069769894164846</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4734371679813298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.485828342694002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214340672"/>
+        <c:axId val="214341248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214340672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214341248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214341248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214340672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'torque-w'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>torque(N*m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'torque-w'!$P$2:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'torque-w'!$Q$2:$Q$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.5798830495131149E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.493445134608723E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.184295472259231E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4598082757071727E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1615301186989259E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.103120550106929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20313176155226001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1905363062914576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17933813186403741</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13367729148007529</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5069770237403067E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8279620760798917E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2381898829019E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7040042638383883E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.9793445615946841E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.0090601380416617E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.0569854159684586E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.960540566426059E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.100120278345942</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.11616891766804539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214342976"/>
+        <c:axId val="214654976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214342976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214654976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214654976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214342976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'torque-w'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'torque-w'!$P$2:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'torque-w'!$R$2:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.493445134608723E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23685909445184619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0379424827121517</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2646120474795701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1560275053464499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.187905693135601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.337541440402031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.347050549122994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.030956233206776</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5069770237403066</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2107582836878805</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.48582785948228</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.8152055429899043</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.9710823862325579</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-10.513590207062492</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-11.291176665549534</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-15.2329189629243</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-18.021650102269561</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-22.072094356928623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214656704"/>
+        <c:axId val="214657280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214656704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214657280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214657280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214656704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'torque-w'!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>torque(N*m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'torque-w'!$S$2:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'torque-w'!$T$2:$T$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.7860867786478512E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3532965942722041E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0081544609391979E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.756248366617536E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8647868175513013E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0392121476188405E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1716247089273098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1684912200058867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16519734893629831</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1274520099297077</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.33029528083682E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6373852277548899E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7569110542551829E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.3949362402953961E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.7565472165749518E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.8907245005776297E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.0748370513845785E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.1007147155854118</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.1159012747157195</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.13363800268706469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214659008"/>
+        <c:axId val="214659584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214659008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214659584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214659584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214659008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'torque-w'!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'torque-w'!$S$2:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'torque-w'!$U$2:$U$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.353296594272204E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20163089218783958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8268745099852608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3459147270205207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0196060738094204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.297482535638588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.79438540041207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.215787914903865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.470680893673693</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.33029528083682</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0011237505303789</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.1082932651062194</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.7134171123840147</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.059166103204932</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11.836086750866444</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-12.919739282215325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-17.121501649520006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-20.86222944882951</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-25.39122051054229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214661312"/>
+        <c:axId val="214661888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214661312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214661888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214661888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214661312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -602,20 +2517,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -632,23 +2547,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -657,6 +2570,216 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>430512</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>426090</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -950,15 +3073,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AI52" sqref="AI52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,8 +3094,68 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -985,8 +3168,74 @@
       <c r="D2">
         <v>5.290477035187767E-2</v>
       </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.368672793838134</v>
+      </c>
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>H2*I2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>6.6671133272732483E-2</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M21" si="0">K2*L2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>6.5862178865700701E-3</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>5.5798830495131149E-3</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R21" si="1">P2*Q2</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>4.7860867786478512E-3</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:U21" si="2">S2*T2</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="8">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>5.2676175791119594E-3</v>
+      </c>
+      <c r="X2">
+        <f>V2*W2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -999,8 +3248,74 @@
       <c r="D3">
         <v>9.5069769894164852E-2</v>
       </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1.700020372318847</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="3">E3*F3</f>
+        <v>17.00020372318847</v>
+      </c>
+      <c r="H3" s="4">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J21" si="4">H3*I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>4.7674868801936603E-2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0.47674868801936604</v>
+      </c>
+      <c r="N3" s="5">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>1.493445134608723E-3</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>1.493445134608723E-2</v>
+      </c>
+      <c r="S3" s="6">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>1.3532965942722041E-3</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="2"/>
+        <v>1.353296594272204E-2</v>
+      </c>
+      <c r="V3" s="8">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>1.4316800333686341E-3</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X21" si="5">V3*W3</f>
+        <v>1.431680033368634E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>200</v>
       </c>
@@ -1013,8 +3328,74 @@
       <c r="D4">
         <v>-0.1196547282751847</v>
       </c>
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>0.46838819562194128</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>9.367763912438825</v>
+      </c>
+      <c r="H4" s="4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>6.8448800236867585E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1.3689760047373518</v>
+      </c>
+      <c r="N4" s="5">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>2.544403521869389E-2</v>
+      </c>
+      <c r="P4" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <v>1.184295472259231E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>0.23685909445184619</v>
+      </c>
+      <c r="S4" s="6">
+        <v>20</v>
+      </c>
+      <c r="T4">
+        <v>1.0081544609391979E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>0.20163089218783958</v>
+      </c>
+      <c r="V4" s="8">
+        <v>20</v>
+      </c>
+      <c r="W4">
+        <v>1.11780024176454E-2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="5"/>
+        <v>0.22356004835290799</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>300</v>
       </c>
@@ -1027,8 +3408,74 @@
       <c r="D5">
         <v>-0.30552270279119748</v>
       </c>
+      <c r="E5" s="3">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>0.29022483338904742</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>8.7067450016714218</v>
+      </c>
+      <c r="H5" s="4">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>1.7978443161091671E-3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>5.3935329483275014E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>8.9505175838503648E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>2.6851552751551093</v>
+      </c>
+      <c r="N5" s="5">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>6.5894134121885092E-2</v>
+      </c>
+      <c r="P5" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q5">
+        <v>3.4598082757071727E-2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>1.0379424827121517</v>
+      </c>
+      <c r="S5" s="6">
+        <v>30</v>
+      </c>
+      <c r="T5">
+        <v>2.756248366617536E-2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>0.8268745099852608</v>
+      </c>
+      <c r="V5" s="8">
+        <v>30</v>
+      </c>
+      <c r="W5">
+        <v>3.2029017770022483E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="5"/>
+        <v>0.9608705331006745</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>400</v>
       </c>
@@ -1041,8 +3488,74 @@
       <c r="D6">
         <v>-0.11698997773066069</v>
       </c>
+      <c r="E6" s="3">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>0.1398476042608317</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>5.5939041704332677</v>
+      </c>
+      <c r="H6" s="4">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <v>0.11052608436562469</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>4.421043374624988</v>
+      </c>
+      <c r="N6" s="5">
+        <v>40</v>
+      </c>
+      <c r="O6">
+        <v>7.1565939575420817E-2</v>
+      </c>
+      <c r="P6" s="5">
+        <v>40</v>
+      </c>
+      <c r="Q6">
+        <v>8.1615301186989259E-2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>3.2646120474795701</v>
+      </c>
+      <c r="S6" s="6">
+        <v>40</v>
+      </c>
+      <c r="T6">
+        <v>5.8647868175513013E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>2.3459147270205207</v>
+      </c>
+      <c r="V6" s="8">
+        <v>40</v>
+      </c>
+      <c r="W6">
+        <v>7.2864619200512681E-2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="5"/>
+        <v>2.9145847680205073</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>500</v>
       </c>
@@ -1055,8 +3568,74 @@
       <c r="D7">
         <v>-8.6697768710519374E-2</v>
       </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>0.17532797592127519</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>8.7663987960637595</v>
+      </c>
+      <c r="H7" s="4">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>1.9758398952336019E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0.98791994761680091</v>
+      </c>
+      <c r="K7" s="4">
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <v>0.1131096637108622</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>5.65548318554311</v>
+      </c>
+      <c r="N7" s="5">
+        <v>50</v>
+      </c>
+      <c r="O7">
+        <v>0.13004908321033759</v>
+      </c>
+      <c r="P7" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q7">
+        <v>0.103120550106929</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>5.1560275053464499</v>
+      </c>
+      <c r="S7" s="6">
+        <v>50</v>
+      </c>
+      <c r="T7">
+        <v>8.0392121476188405E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>4.0196060738094204</v>
+      </c>
+      <c r="V7" s="8">
+        <v>50</v>
+      </c>
+      <c r="W7">
+        <v>9.3558262790071428E-2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>4.6779131395035716</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>600</v>
       </c>
@@ -1069,8 +3648,74 @@
       <c r="D8">
         <v>-0.39198221773012698</v>
       </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>0.20313170572330791</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>12.187902343398475</v>
+      </c>
+      <c r="H8" s="4">
+        <v>60</v>
+      </c>
+      <c r="I8">
+        <v>0.20313170572330791</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>12.187902343398475</v>
+      </c>
+      <c r="K8" s="4">
+        <v>60</v>
+      </c>
+      <c r="L8">
+        <v>0.20313170572330791</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>12.187902343398475</v>
+      </c>
+      <c r="N8" s="5">
+        <v>60</v>
+      </c>
+      <c r="O8">
+        <v>0.19302808122618351</v>
+      </c>
+      <c r="P8" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q8">
+        <v>0.20313176155226001</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>12.187905693135601</v>
+      </c>
+      <c r="S8" s="6">
+        <v>60</v>
+      </c>
+      <c r="T8">
+        <v>0.1716247089273098</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>10.297482535638588</v>
+      </c>
+      <c r="V8" s="8">
+        <v>60</v>
+      </c>
+      <c r="W8">
+        <v>0.17916175301396919</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="5"/>
+        <v>10.749705180838152</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>700</v>
       </c>
@@ -1083,8 +3728,74 @@
       <c r="D9">
         <v>-0.46455776671753629</v>
       </c>
+      <c r="E9" s="3">
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <v>0.190536289444284</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>13.33754026109988</v>
+      </c>
+      <c r="H9" s="4">
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <v>0.1206062147324603</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>8.4424350312722218</v>
+      </c>
+      <c r="K9" s="4">
+        <v>70</v>
+      </c>
+      <c r="L9">
+        <v>0.190536289444284</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>13.33754026109988</v>
+      </c>
+      <c r="N9" s="5">
+        <v>70</v>
+      </c>
+      <c r="O9">
+        <v>0.1845851752693296</v>
+      </c>
+      <c r="P9" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q9">
+        <v>0.1905363062914576</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>13.337541440402031</v>
+      </c>
+      <c r="S9" s="6">
+        <v>70</v>
+      </c>
+      <c r="T9">
+        <v>0.1684912200058867</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>11.79438540041207</v>
+      </c>
+      <c r="V9" s="8">
+        <v>70</v>
+      </c>
+      <c r="W9">
+        <v>0.1747008466165047</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="5"/>
+        <v>12.22905926315533</v>
+      </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>800</v>
       </c>
@@ -1097,8 +3808,74 @@
       <c r="D10">
         <v>-0.18211020661272789</v>
       </c>
+      <c r="E10" s="10">
+        <v>80</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.17933813131297199</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="3"/>
+        <v>14.34705050503776</v>
+      </c>
+      <c r="H10" s="12">
+        <v>80</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.17933813131297199</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="4"/>
+        <v>14.34705050503776</v>
+      </c>
+      <c r="K10" s="12">
+        <v>80</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.17933813131297199</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="0"/>
+        <v>14.34705050503776</v>
+      </c>
+      <c r="N10" s="13">
+        <v>80</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0.1793605112008676</v>
+      </c>
+      <c r="P10" s="13">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0.17933813186403741</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" si="1"/>
+        <v>14.347050549122994</v>
+      </c>
+      <c r="S10" s="14">
+        <v>80</v>
+      </c>
+      <c r="T10" s="11">
+        <v>0.16519734893629831</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="2"/>
+        <v>13.215787914903865</v>
+      </c>
+      <c r="V10" s="15">
+        <v>80</v>
+      </c>
+      <c r="W10" s="11">
+        <v>0.17000774165527241</v>
+      </c>
+      <c r="X10" s="11">
+        <f t="shared" si="5"/>
+        <v>13.600619332421793</v>
+      </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>900</v>
       </c>
@@ -1111,8 +3888,142 @@
       <c r="D11">
         <v>-0.65577726863200303</v>
       </c>
+      <c r="E11" s="3">
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <v>0.15088581565994241</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>13.579723409394816</v>
+      </c>
+      <c r="H11" s="4">
+        <v>90</v>
+      </c>
+      <c r="I11">
+        <v>0.13367729206064169</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>12.030956285457751</v>
+      </c>
+      <c r="K11" s="4">
+        <v>90</v>
+      </c>
+      <c r="L11">
+        <v>0.14238708795097579</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>12.814837915587821</v>
+      </c>
+      <c r="N11" s="5">
+        <v>90</v>
+      </c>
+      <c r="O11">
+        <v>0.15190288114591019</v>
+      </c>
+      <c r="P11" s="5">
+        <v>90</v>
+      </c>
+      <c r="Q11">
+        <v>0.13367729148007529</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>12.030956233206776</v>
+      </c>
+      <c r="S11" s="6">
+        <v>90</v>
+      </c>
+      <c r="T11">
+        <v>0.1274520099297077</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>11.470680893673693</v>
+      </c>
+      <c r="V11" s="8">
+        <v>90</v>
+      </c>
+      <c r="W11">
+        <v>0.13089639788131111</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="5"/>
+        <v>11.780675809318</v>
+      </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="12" spans="1:24">
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>0.1062271269035644</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>10.62271269035644</v>
+      </c>
+      <c r="H12" s="4">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>7.8204763272884226E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>7.8204763272884223</v>
+      </c>
+      <c r="K12" s="4">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>9.5069769894164852E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>9.5069769894164846</v>
+      </c>
+      <c r="N12" s="5">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>9.259868709936396E-2</v>
+      </c>
+      <c r="P12" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q12">
+        <v>9.5069770237403067E-2</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>9.5069770237403066</v>
+      </c>
+      <c r="S12" s="6">
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>9.33029528083682E-2</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>9.33029528083682</v>
+      </c>
+      <c r="V12" s="8">
+        <v>100</v>
+      </c>
+      <c r="W12">
+        <v>9.7199268819954179E-2</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="5"/>
+        <v>9.7199268819954181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1120,11 +4031,77 @@
         <v>5.2905000000000001E-2</v>
       </c>
       <c r="C13">
-        <f>A13*B13</f>
+        <f t="shared" ref="C13:C32" si="6">A13*B13</f>
         <v>0</v>
       </c>
+      <c r="E13" s="3">
+        <v>110</v>
+      </c>
+      <c r="F13">
+        <v>4.0667610618012093E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>4.4734371679813298</v>
+      </c>
+      <c r="H13" s="4">
+        <v>110</v>
+      </c>
+      <c r="I13">
+        <v>4.7189580920920987E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>5.1908539013013089</v>
+      </c>
+      <c r="K13" s="4">
+        <v>110</v>
+      </c>
+      <c r="L13">
+        <v>4.0667610618012093E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>4.4734371679813298</v>
+      </c>
+      <c r="N13" s="5">
+        <v>110</v>
+      </c>
+      <c r="O13">
+        <v>3.4947511892912189E-2</v>
+      </c>
+      <c r="P13" s="5">
+        <v>110</v>
+      </c>
+      <c r="Q13">
+        <v>3.8279620760798917E-2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>4.2107582836878805</v>
+      </c>
+      <c r="S13" s="6">
+        <v>110</v>
+      </c>
+      <c r="T13">
+        <v>3.6373852277548899E-2</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>4.0011237505303789</v>
+      </c>
+      <c r="V13" s="8">
+        <v>110</v>
+      </c>
+      <c r="W13">
+        <v>4.3071269810313152E-2</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="5"/>
+        <v>4.7378396791344466</v>
+      </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1132,11 +4109,77 @@
         <v>4.7675000000000002E-2</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C32" si="0">A14*B14</f>
+        <f t="shared" si="6"/>
         <v>0.47675000000000001</v>
       </c>
+      <c r="E14" s="3">
+        <v>120</v>
+      </c>
+      <c r="F14">
+        <v>-1.2381902855783351E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>-1.485828342694002</v>
+      </c>
+      <c r="H14" s="4">
+        <v>120</v>
+      </c>
+      <c r="I14">
+        <v>-3.2417830916582702E-3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>-0.38901397099899243</v>
+      </c>
+      <c r="K14" s="4">
+        <v>120</v>
+      </c>
+      <c r="L14">
+        <v>-1.2381902855783351E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>-1.485828342694002</v>
+      </c>
+      <c r="N14" s="5">
+        <v>120</v>
+      </c>
+      <c r="O14">
+        <v>-2.24006160770122E-2</v>
+      </c>
+      <c r="P14" s="5">
+        <v>120</v>
+      </c>
+      <c r="Q14">
+        <v>-1.2381898829019E-2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>-1.48582785948228</v>
+      </c>
+      <c r="S14" s="6">
+        <v>120</v>
+      </c>
+      <c r="T14">
+        <v>-1.7569110542551829E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>-2.1082932651062194</v>
+      </c>
+      <c r="V14" s="8">
+        <v>120</v>
+      </c>
+      <c r="W14">
+        <v>-1.629616833671033E-3</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="5"/>
+        <v>-0.19555402004052397</v>
+      </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>20</v>
       </c>
@@ -1144,11 +4187,77 @@
         <v>6.8448999999999996E-2</v>
       </c>
       <c r="C15">
+        <f t="shared" si="6"/>
+        <v>1.3689799999999999</v>
+      </c>
+      <c r="E15" s="3">
+        <v>130</v>
+      </c>
+      <c r="F15">
+        <v>-3.8541864741664017E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>-5.0104424164163222</v>
+      </c>
+      <c r="H15" s="4">
+        <v>130</v>
+      </c>
+      <c r="I15">
+        <v>-2.027750478267841E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>-2.6360756217481933</v>
+      </c>
+      <c r="K15" s="4">
+        <v>130</v>
+      </c>
+      <c r="L15">
+        <v>-3.8043479155452822E-2</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="0"/>
-        <v>1.3689799999999999</v>
+        <v>-4.9456522902088667</v>
+      </c>
+      <c r="N15" s="5">
+        <v>130</v>
+      </c>
+      <c r="O15">
+        <v>-3.9598619090545351E-2</v>
+      </c>
+      <c r="P15" s="5">
+        <v>130</v>
+      </c>
+      <c r="Q15">
+        <v>-3.7040042638383883E-2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>-4.8152055429899043</v>
+      </c>
+      <c r="S15" s="6">
+        <v>130</v>
+      </c>
+      <c r="T15">
+        <v>-4.3949362402953961E-2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>-5.7134171123840147</v>
+      </c>
+      <c r="V15" s="8">
+        <v>130</v>
+      </c>
+      <c r="W15">
+        <v>-2.350147871148707E-2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="5"/>
+        <v>-3.0551922324933192</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>30</v>
       </c>
@@ -1156,11 +4265,77 @@
         <v>8.2783999999999996E-2</v>
       </c>
       <c r="C16">
+        <f t="shared" si="6"/>
+        <v>2.4835199999999999</v>
+      </c>
+      <c r="E16" s="3">
+        <v>140</v>
+      </c>
+      <c r="F16">
+        <v>-7.1108617881913663</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>-995.52065034679129</v>
+      </c>
+      <c r="H16" s="4">
+        <v>140</v>
+      </c>
+      <c r="I16">
+        <v>-4.1953782036758588E-3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>-0.58735294851462028</v>
+      </c>
+      <c r="K16" s="4">
+        <v>140</v>
+      </c>
+      <c r="L16">
+        <v>-4.7538720828003887E-2</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="0"/>
-        <v>2.4835199999999999</v>
+        <v>-6.6554209159205442</v>
+      </c>
+      <c r="N16" s="5">
+        <v>140</v>
+      </c>
+      <c r="O16">
+        <v>-3.9546965997249911E-2</v>
+      </c>
+      <c r="P16" s="5">
+        <v>140</v>
+      </c>
+      <c r="Q16">
+        <v>-4.9793445615946841E-2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>-6.9710823862325579</v>
+      </c>
+      <c r="S16" s="6">
+        <v>140</v>
+      </c>
+      <c r="T16">
+        <v>-5.7565472165749518E-2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>-8.059166103204932</v>
+      </c>
+      <c r="V16" s="8">
+        <v>140</v>
+      </c>
+      <c r="W16">
+        <v>-3.216748024935695E-2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="5"/>
+        <v>-4.5034472349099728</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>40</v>
       </c>
@@ -1168,11 +4343,77 @@
         <v>0.110526</v>
       </c>
       <c r="C17">
+        <f t="shared" si="6"/>
+        <v>4.4210399999999996</v>
+      </c>
+      <c r="E17" s="3">
+        <v>150</v>
+      </c>
+      <c r="F17">
+        <v>-0.17146778203403279</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>-25.720167305104919</v>
+      </c>
+      <c r="H17" s="4">
+        <v>150</v>
+      </c>
+      <c r="I17">
+        <v>-1.449583481954129E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>-2.1743752229311935</v>
+      </c>
+      <c r="K17" s="4">
+        <v>150</v>
+      </c>
+      <c r="L17">
+        <v>-6.9068393838190023E-2</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="0"/>
-        <v>4.4210399999999996</v>
+        <v>-10.360259075728504</v>
+      </c>
+      <c r="N17" s="5">
+        <v>150</v>
+      </c>
+      <c r="O17">
+        <v>-7.374763890174775E-2</v>
+      </c>
+      <c r="P17" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q17">
+        <v>-7.0090601380416617E-2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>-10.513590207062492</v>
+      </c>
+      <c r="S17" s="6">
+        <v>150</v>
+      </c>
+      <c r="T17">
+        <v>-7.8907245005776297E-2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>-11.836086750866444</v>
+      </c>
+      <c r="V17" s="8">
+        <v>150</v>
+      </c>
+      <c r="W17">
+        <v>-4.9927398603607592E-2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="5"/>
+        <v>-7.4891097905411392</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>50</v>
       </c>
@@ -1180,11 +4421,77 @@
         <v>0.11311</v>
       </c>
       <c r="C18">
+        <f t="shared" si="6"/>
+        <v>5.6555</v>
+      </c>
+      <c r="E18" s="3">
+        <v>160</v>
+      </c>
+      <c r="F18">
+        <v>-0.1423118412765981</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>-22.769894604255697</v>
+      </c>
+      <c r="H18" s="4">
+        <v>160</v>
+      </c>
+      <c r="I18">
+        <v>-3.4789607363581478E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>-5.5663371781730362</v>
+      </c>
+      <c r="K18" s="4">
+        <v>160</v>
+      </c>
+      <c r="L18">
+        <v>-8.0597210050679241E-2</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="0"/>
-        <v>5.6555</v>
+        <v>-12.895553608108678</v>
+      </c>
+      <c r="N18" s="5">
+        <v>160</v>
+      </c>
+      <c r="O18">
+        <v>-6.5962738740891938E-2</v>
+      </c>
+      <c r="P18" s="5">
+        <v>160</v>
+      </c>
+      <c r="Q18">
+        <v>-7.0569854159684586E-2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>-11.291176665549534</v>
+      </c>
+      <c r="S18" s="6">
+        <v>160</v>
+      </c>
+      <c r="T18">
+        <v>-8.0748370513845785E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>-12.919739282215325</v>
+      </c>
+      <c r="V18" s="8">
+        <v>160</v>
+      </c>
+      <c r="W18">
+        <v>-4.8432452665643298E-2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="5"/>
+        <v>-7.7491924265029279</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>60</v>
       </c>
@@ -1192,11 +4499,77 @@
         <v>0.20313200000000001</v>
       </c>
       <c r="C19">
+        <f t="shared" si="6"/>
+        <v>12.18792</v>
+      </c>
+      <c r="E19" s="3">
+        <v>170</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H19" s="4">
+        <v>170</v>
+      </c>
+      <c r="I19">
+        <v>-1.7733823228929139E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>-3.0147499489179537</v>
+      </c>
+      <c r="K19" s="4">
+        <v>170</v>
+      </c>
+      <c r="L19">
+        <v>-0.10104976311874971</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="0"/>
-        <v>12.18792</v>
+        <v>-17.178459730187448</v>
+      </c>
+      <c r="N19" s="5">
+        <v>170</v>
+      </c>
+      <c r="O19">
+        <v>-5.6587017505116341E-2</v>
+      </c>
+      <c r="P19" s="5">
+        <v>170</v>
+      </c>
+      <c r="Q19">
+        <v>-8.960540566426059E-2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>-15.2329189629243</v>
+      </c>
+      <c r="S19" s="6">
+        <v>170</v>
+      </c>
+      <c r="T19">
+        <v>-0.1007147155854118</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>-17.121501649520006</v>
+      </c>
+      <c r="V19" s="8">
+        <v>170</v>
+      </c>
+      <c r="W19">
+        <v>-6.6945804915050422E-2</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="5"/>
+        <v>-11.380786835558572</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>70</v>
       </c>
@@ -1204,11 +4577,77 @@
         <v>0.19053600000000001</v>
       </c>
       <c r="C20">
+        <f t="shared" si="6"/>
+        <v>13.337520000000001</v>
+      </c>
+      <c r="E20" s="3">
+        <v>180</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20" s="4">
+        <v>180</v>
+      </c>
+      <c r="I20">
+        <v>-2.248724185353275E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>-4.0477035336358949</v>
+      </c>
+      <c r="K20" s="4">
+        <v>180</v>
+      </c>
+      <c r="L20">
+        <v>-0.11382624406275201</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="0"/>
-        <v>13.337520000000001</v>
+        <v>-20.488723931295361</v>
+      </c>
+      <c r="N20" s="5">
+        <v>180</v>
+      </c>
+      <c r="O20">
+        <v>-6.9583541614898103E-2</v>
+      </c>
+      <c r="P20" s="5">
+        <v>180</v>
+      </c>
+      <c r="Q20">
+        <v>-0.100120278345942</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>-18.021650102269561</v>
+      </c>
+      <c r="S20" s="6">
+        <v>180</v>
+      </c>
+      <c r="T20">
+        <v>-0.1159012747157195</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>-20.86222944882951</v>
+      </c>
+      <c r="V20" s="8">
+        <v>180</v>
+      </c>
+      <c r="W20">
+        <v>-7.0915024888120612E-2</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="5"/>
+        <v>-12.76470447986171</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>80</v>
       </c>
@@ -1216,11 +4655,77 @@
         <v>0.179338</v>
       </c>
       <c r="C21">
+        <f t="shared" si="6"/>
+        <v>14.34704</v>
+      </c>
+      <c r="E21" s="3">
+        <v>190</v>
+      </c>
+      <c r="F21">
+        <v>-25.824975802030071</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>-4906.7454023857135</v>
+      </c>
+      <c r="H21" s="4">
+        <v>190</v>
+      </c>
+      <c r="I21">
+        <v>-1.8696637106528399E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>-3.5523610502403957</v>
+      </c>
+      <c r="K21" s="4">
+        <v>190</v>
+      </c>
+      <c r="L21">
+        <v>-9.8455303162589144E-2</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="0"/>
-        <v>14.34704</v>
+        <v>-18.706507600891939</v>
+      </c>
+      <c r="N21" s="5">
+        <v>190</v>
+      </c>
+      <c r="O21">
+        <v>-9.5863522052739764E-2</v>
+      </c>
+      <c r="P21" s="5">
+        <v>190</v>
+      </c>
+      <c r="Q21">
+        <v>-0.11616891766804539</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>-22.072094356928623</v>
+      </c>
+      <c r="S21" s="6">
+        <v>190</v>
+      </c>
+      <c r="T21">
+        <v>-0.13363800268706469</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>-25.39122051054229</v>
+      </c>
+      <c r="V21" s="8">
+        <v>190</v>
+      </c>
+      <c r="W21">
+        <v>-8.0573525277940206E-2</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="5"/>
+        <v>-15.308969802808639</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>90</v>
       </c>
@@ -1228,11 +4733,11 @@
         <v>0.14238700000000001</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>12.814830000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>100</v>
       </c>
@@ -1240,11 +4745,11 @@
         <v>9.5070000000000002E-2</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>9.5069999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>110</v>
       </c>
@@ -1252,11 +4757,11 @@
         <v>4.0668000000000003E-2</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.4734800000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:24">
       <c r="A25">
         <v>120</v>
       </c>
@@ -1264,11 +4769,11 @@
         <v>-1.2382000000000001E-2</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-1.48584</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:24">
       <c r="A26">
         <v>130</v>
       </c>
@@ -1276,11 +4781,11 @@
         <v>-3.7039999999999997E-2</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-4.8151999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:24">
       <c r="A27">
         <v>140</v>
       </c>
@@ -1288,11 +4793,11 @@
         <v>-4.7538999999999998E-2</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-6.6554599999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>150</v>
       </c>
@@ -1300,11 +4805,11 @@
         <v>-6.9068000000000004E-2</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-10.360200000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:24">
       <c r="A29">
         <v>160</v>
       </c>
@@ -1312,11 +4817,11 @@
         <v>-8.0597000000000002E-2</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-12.895520000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:24">
       <c r="A30">
         <v>170</v>
       </c>
@@ -1324,11 +4829,11 @@
         <v>-0.10105</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-17.1785</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:24">
       <c r="A31">
         <v>180</v>
       </c>
@@ -1336,11 +4841,11 @@
         <v>-0.113826</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-20.488679999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:24">
       <c r="A32">
         <v>190</v>
       </c>
@@ -1348,13 +4853,14 @@
         <v>-9.8455000000000001E-2</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-18.70645</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>